--- a/data/engdata/SerieA/24-25-E.xlsx
+++ b/data/engdata/SerieA/24-25-E.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI11"/>
+  <dimension ref="A1:EJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,12 +1125,17 @@
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>HomeEloRating</t>
+          <t>elo_home</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>AwayEloRating</t>
+          <t>elo_away</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>EloRatio</t>
         </is>
       </c>
     </row>
@@ -1547,10 +1552,13 @@
       <c r="EF2" t="inlineStr"/>
       <c r="EG2" t="inlineStr"/>
       <c r="EH2" t="n">
-        <v>1497.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI2" t="n">
-        <v>1502.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1966,10 +1974,13 @@
       <c r="EF3" t="inlineStr"/>
       <c r="EG3" t="inlineStr"/>
       <c r="EH3" t="n">
-        <v>1497.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI3" t="n">
-        <v>1502.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2385,10 +2396,13 @@
       <c r="EF4" t="inlineStr"/>
       <c r="EG4" t="inlineStr"/>
       <c r="EH4" t="n">
-        <v>1497.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI4" t="n">
-        <v>1502.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2804,10 +2818,13 @@
       <c r="EF5" t="inlineStr"/>
       <c r="EG5" t="inlineStr"/>
       <c r="EH5" t="n">
-        <v>1497.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI5" t="n">
-        <v>1502.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3223,10 +3240,13 @@
       <c r="EF6" t="inlineStr"/>
       <c r="EG6" t="inlineStr"/>
       <c r="EH6" t="n">
-        <v>1497.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI6" t="n">
-        <v>1502.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3642,10 +3662,13 @@
       <c r="EF7" t="inlineStr"/>
       <c r="EG7" t="inlineStr"/>
       <c r="EH7" t="n">
-        <v>1507.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI7" t="n">
-        <v>1492.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4061,10 +4084,13 @@
       <c r="EF8" t="inlineStr"/>
       <c r="EG8" t="inlineStr"/>
       <c r="EH8" t="n">
-        <v>1497.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI8" t="n">
-        <v>1502.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -4480,10 +4506,13 @@
       <c r="EF9" t="inlineStr"/>
       <c r="EG9" t="inlineStr"/>
       <c r="EH9" t="n">
-        <v>1507.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI9" t="n">
-        <v>1492.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -4899,10 +4928,13 @@
       <c r="EF10" t="inlineStr"/>
       <c r="EG10" t="inlineStr"/>
       <c r="EH10" t="n">
-        <v>1487.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI10" t="n">
-        <v>1512.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -5318,10 +5350,13 @@
       <c r="EF11" t="inlineStr"/>
       <c r="EG11" t="inlineStr"/>
       <c r="EH11" t="n">
-        <v>1507.198700003942</v>
+        <v>1500</v>
       </c>
       <c r="EI11" t="n">
-        <v>1492.801299996058</v>
+        <v>1500</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/engdata/SerieA/24-25-E.xlsx
+++ b/data/engdata/SerieA/24-25-E.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EJ11"/>
+  <dimension ref="A1:FK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,6 +1138,141 @@
           <t>EloRatio</t>
         </is>
       </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>HomeLast3Points</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>HomeAvgGoalsScored</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>HomeAvgGoalsConceded</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>HomeEwmaPoints</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>HomeEwmaGoalsScored</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>HomeEwmaGoalsConceded</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>AwayLast3Points</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>AwayAvgGoalsScored</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>AwayAvgGoalsConceded</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>AwayEwmaPoints</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>AwayEwmaGoalsScored</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>AwayEwmaGoalsConceded</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>HomeWins</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>HomeDraws</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>HomeLosses</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>AwayWins</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>AwayDraws</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>AwayLosses</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>UltimoScontroDiretto</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>Last3PointsDifference</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>GoalRatioDifference</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>EwmaGoalsSum</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>GoalsSum</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>HomePointGap</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>AwayPointGap</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>HomeGoalGap</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGoalGap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1560,6 +1695,43 @@
       <c r="EJ2" t="n">
         <v>1</v>
       </c>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr"/>
+      <c r="EO2" t="inlineStr"/>
+      <c r="EP2" t="inlineStr"/>
+      <c r="EQ2" t="inlineStr"/>
+      <c r="ER2" t="inlineStr"/>
+      <c r="ES2" t="inlineStr"/>
+      <c r="ET2" t="inlineStr"/>
+      <c r="EU2" t="inlineStr"/>
+      <c r="EV2" t="inlineStr"/>
+      <c r="EW2" t="inlineStr"/>
+      <c r="EX2" t="inlineStr"/>
+      <c r="EY2" t="inlineStr"/>
+      <c r="EZ2" t="inlineStr"/>
+      <c r="FA2" t="inlineStr"/>
+      <c r="FB2" t="inlineStr"/>
+      <c r="FC2" t="inlineStr"/>
+      <c r="FD2" t="inlineStr"/>
+      <c r="FE2" t="inlineStr"/>
+      <c r="FF2" t="inlineStr"/>
+      <c r="FG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1982,6 +2154,43 @@
       <c r="EJ3" t="n">
         <v>1</v>
       </c>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
+      <c r="EP3" t="inlineStr"/>
+      <c r="EQ3" t="inlineStr"/>
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="inlineStr"/>
+      <c r="ET3" t="inlineStr"/>
+      <c r="EU3" t="inlineStr"/>
+      <c r="EV3" t="inlineStr"/>
+      <c r="EW3" t="inlineStr"/>
+      <c r="EX3" t="inlineStr"/>
+      <c r="EY3" t="inlineStr"/>
+      <c r="EZ3" t="inlineStr"/>
+      <c r="FA3" t="inlineStr"/>
+      <c r="FB3" t="inlineStr"/>
+      <c r="FC3" t="inlineStr"/>
+      <c r="FD3" t="inlineStr"/>
+      <c r="FE3" t="inlineStr"/>
+      <c r="FF3" t="inlineStr"/>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2404,6 +2613,43 @@
       <c r="EJ4" t="n">
         <v>1</v>
       </c>
+      <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+      <c r="EP4" t="inlineStr"/>
+      <c r="EQ4" t="inlineStr"/>
+      <c r="ER4" t="inlineStr"/>
+      <c r="ES4" t="inlineStr"/>
+      <c r="ET4" t="inlineStr"/>
+      <c r="EU4" t="inlineStr"/>
+      <c r="EV4" t="inlineStr"/>
+      <c r="EW4" t="inlineStr"/>
+      <c r="EX4" t="inlineStr"/>
+      <c r="EY4" t="inlineStr"/>
+      <c r="EZ4" t="inlineStr"/>
+      <c r="FA4" t="inlineStr"/>
+      <c r="FB4" t="inlineStr"/>
+      <c r="FC4" t="inlineStr"/>
+      <c r="FD4" t="inlineStr"/>
+      <c r="FE4" t="inlineStr"/>
+      <c r="FF4" t="inlineStr"/>
+      <c r="FG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2826,6 +3072,55 @@
       <c r="EJ5" t="n">
         <v>1</v>
       </c>
+      <c r="EK5" t="inlineStr"/>
+      <c r="EL5" t="inlineStr"/>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr"/>
+      <c r="EO5" t="inlineStr"/>
+      <c r="EP5" t="inlineStr"/>
+      <c r="EQ5" t="inlineStr"/>
+      <c r="ER5" t="inlineStr"/>
+      <c r="ES5" t="inlineStr"/>
+      <c r="ET5" t="inlineStr"/>
+      <c r="EU5" t="inlineStr"/>
+      <c r="EV5" t="inlineStr"/>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="inlineStr"/>
+      <c r="FD5" t="inlineStr"/>
+      <c r="FE5" t="inlineStr"/>
+      <c r="FF5" t="inlineStr"/>
+      <c r="FG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3248,6 +3543,55 @@
       <c r="EJ6" t="n">
         <v>1</v>
       </c>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
+      <c r="ER6" t="inlineStr"/>
+      <c r="ES6" t="inlineStr"/>
+      <c r="ET6" t="inlineStr"/>
+      <c r="EU6" t="inlineStr"/>
+      <c r="EV6" t="inlineStr"/>
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="inlineStr"/>
+      <c r="FD6" t="inlineStr"/>
+      <c r="FE6" t="inlineStr"/>
+      <c r="FF6" t="inlineStr"/>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3670,6 +4014,55 @@
       <c r="EJ7" t="n">
         <v>1</v>
       </c>
+      <c r="EK7" t="inlineStr"/>
+      <c r="EL7" t="inlineStr"/>
+      <c r="EM7" t="inlineStr"/>
+      <c r="EN7" t="inlineStr"/>
+      <c r="EO7" t="inlineStr"/>
+      <c r="EP7" t="inlineStr"/>
+      <c r="EQ7" t="inlineStr"/>
+      <c r="ER7" t="inlineStr"/>
+      <c r="ES7" t="inlineStr"/>
+      <c r="ET7" t="inlineStr"/>
+      <c r="EU7" t="inlineStr"/>
+      <c r="EV7" t="inlineStr"/>
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" t="inlineStr"/>
+      <c r="FD7" t="inlineStr"/>
+      <c r="FE7" t="inlineStr"/>
+      <c r="FF7" t="inlineStr"/>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4092,6 +4485,55 @@
       <c r="EJ8" t="n">
         <v>1</v>
       </c>
+      <c r="EK8" t="inlineStr"/>
+      <c r="EL8" t="inlineStr"/>
+      <c r="EM8" t="inlineStr"/>
+      <c r="EN8" t="inlineStr"/>
+      <c r="EO8" t="inlineStr"/>
+      <c r="EP8" t="inlineStr"/>
+      <c r="EQ8" t="inlineStr"/>
+      <c r="ER8" t="inlineStr"/>
+      <c r="ES8" t="inlineStr"/>
+      <c r="ET8" t="inlineStr"/>
+      <c r="EU8" t="inlineStr"/>
+      <c r="EV8" t="inlineStr"/>
+      <c r="EW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC8" t="inlineStr"/>
+      <c r="FD8" t="inlineStr"/>
+      <c r="FE8" t="inlineStr"/>
+      <c r="FF8" t="inlineStr"/>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4514,6 +4956,55 @@
       <c r="EJ9" t="n">
         <v>1</v>
       </c>
+      <c r="EK9" t="inlineStr"/>
+      <c r="EL9" t="inlineStr"/>
+      <c r="EM9" t="inlineStr"/>
+      <c r="EN9" t="inlineStr"/>
+      <c r="EO9" t="inlineStr"/>
+      <c r="EP9" t="inlineStr"/>
+      <c r="EQ9" t="inlineStr"/>
+      <c r="ER9" t="inlineStr"/>
+      <c r="ES9" t="inlineStr"/>
+      <c r="ET9" t="inlineStr"/>
+      <c r="EU9" t="inlineStr"/>
+      <c r="EV9" t="inlineStr"/>
+      <c r="EW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC9" t="inlineStr"/>
+      <c r="FD9" t="inlineStr"/>
+      <c r="FE9" t="inlineStr"/>
+      <c r="FF9" t="inlineStr"/>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4936,6 +5427,55 @@
       <c r="EJ10" t="n">
         <v>1</v>
       </c>
+      <c r="EK10" t="inlineStr"/>
+      <c r="EL10" t="inlineStr"/>
+      <c r="EM10" t="inlineStr"/>
+      <c r="EN10" t="inlineStr"/>
+      <c r="EO10" t="inlineStr"/>
+      <c r="EP10" t="inlineStr"/>
+      <c r="EQ10" t="inlineStr"/>
+      <c r="ER10" t="inlineStr"/>
+      <c r="ES10" t="inlineStr"/>
+      <c r="ET10" t="inlineStr"/>
+      <c r="EU10" t="inlineStr"/>
+      <c r="EV10" t="inlineStr"/>
+      <c r="EW10" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC10" t="inlineStr"/>
+      <c r="FD10" t="inlineStr"/>
+      <c r="FE10" t="inlineStr"/>
+      <c r="FF10" t="inlineStr"/>
+      <c r="FG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5358,6 +5898,55 @@
       <c r="EJ11" t="n">
         <v>1</v>
       </c>
+      <c r="EK11" t="inlineStr"/>
+      <c r="EL11" t="inlineStr"/>
+      <c r="EM11" t="inlineStr"/>
+      <c r="EN11" t="inlineStr"/>
+      <c r="EO11" t="inlineStr"/>
+      <c r="EP11" t="inlineStr"/>
+      <c r="EQ11" t="inlineStr"/>
+      <c r="ER11" t="inlineStr"/>
+      <c r="ES11" t="inlineStr"/>
+      <c r="ET11" t="inlineStr"/>
+      <c r="EU11" t="inlineStr"/>
+      <c r="EV11" t="inlineStr"/>
+      <c r="EW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC11" t="inlineStr"/>
+      <c r="FD11" t="inlineStr"/>
+      <c r="FE11" t="inlineStr"/>
+      <c r="FF11" t="inlineStr"/>
+      <c r="FG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/engdata/SerieA/24-25-E.xlsx
+++ b/data/engdata/SerieA/24-25-E.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FK11"/>
+  <dimension ref="A1:FS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,6 +1271,46 @@
       <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>AwayGoalGap</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>GoalCumulativeSum</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>GoalCumulativeSumPrev</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>FormRatio</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>FormDiff</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>RecentFormRatio</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>RecentFormDiff</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>EloDiff</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>isOver</t>
         </is>
       </c>
     </row>
@@ -1732,6 +1772,20 @@
       <c r="FK2" t="n">
         <v>0</v>
       </c>
+      <c r="FL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" t="inlineStr"/>
+      <c r="FN2" t="inlineStr"/>
+      <c r="FO2" t="inlineStr"/>
+      <c r="FP2" t="inlineStr"/>
+      <c r="FQ2" t="inlineStr"/>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2191,6 +2245,22 @@
       <c r="FK3" t="n">
         <v>0</v>
       </c>
+      <c r="FL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="inlineStr"/>
+      <c r="FO3" t="inlineStr"/>
+      <c r="FP3" t="inlineStr"/>
+      <c r="FQ3" t="inlineStr"/>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2650,6 +2720,22 @@
       <c r="FK4" t="n">
         <v>0</v>
       </c>
+      <c r="FL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" t="inlineStr"/>
+      <c r="FO4" t="inlineStr"/>
+      <c r="FP4" t="inlineStr"/>
+      <c r="FQ4" t="inlineStr"/>
+      <c r="FR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3121,6 +3207,22 @@
       <c r="FK5" t="n">
         <v>0</v>
       </c>
+      <c r="FL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="inlineStr"/>
+      <c r="FO5" t="inlineStr"/>
+      <c r="FP5" t="inlineStr"/>
+      <c r="FQ5" t="inlineStr"/>
+      <c r="FR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3592,6 +3694,22 @@
       <c r="FK6" t="n">
         <v>0</v>
       </c>
+      <c r="FL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="inlineStr"/>
+      <c r="FO6" t="inlineStr"/>
+      <c r="FP6" t="inlineStr"/>
+      <c r="FQ6" t="inlineStr"/>
+      <c r="FR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4062,6 +4180,22 @@
       </c>
       <c r="FK7" t="n">
         <v>0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="inlineStr"/>
+      <c r="FO7" t="inlineStr"/>
+      <c r="FP7" t="inlineStr"/>
+      <c r="FQ7" t="inlineStr"/>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4534,6 +4668,22 @@
       <c r="FK8" t="n">
         <v>0</v>
       </c>
+      <c r="FL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="inlineStr"/>
+      <c r="FO8" t="inlineStr"/>
+      <c r="FP8" t="inlineStr"/>
+      <c r="FQ8" t="inlineStr"/>
+      <c r="FR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5005,6 +5155,22 @@
       <c r="FK9" t="n">
         <v>0</v>
       </c>
+      <c r="FL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="inlineStr"/>
+      <c r="FO9" t="inlineStr"/>
+      <c r="FP9" t="inlineStr"/>
+      <c r="FQ9" t="inlineStr"/>
+      <c r="FR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5476,6 +5642,22 @@
       <c r="FK10" t="n">
         <v>0</v>
       </c>
+      <c r="FL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" t="inlineStr"/>
+      <c r="FO10" t="inlineStr"/>
+      <c r="FP10" t="inlineStr"/>
+      <c r="FQ10" t="inlineStr"/>
+      <c r="FR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5947,6 +6129,22 @@
       <c r="FK11" t="n">
         <v>0</v>
       </c>
+      <c r="FL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" t="inlineStr"/>
+      <c r="FO11" t="inlineStr"/>
+      <c r="FP11" t="inlineStr"/>
+      <c r="FQ11" t="inlineStr"/>
+      <c r="FR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
